--- a/Jogos_do_Dia/2023-03-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="163">
   <si>
     <t>League</t>
   </si>
@@ -247,12 +247,12 @@
     <t>Zira</t>
   </si>
   <si>
+    <t>Sūduva</t>
+  </si>
+  <si>
     <t>İstanbul Başakşehir</t>
   </si>
   <si>
-    <t>Sūduva</t>
-  </si>
-  <si>
     <t>ENPPI</t>
   </si>
   <si>
@@ -289,21 +289,21 @@
     <t>Brighton &amp; Hove Albion</t>
   </si>
   <si>
+    <t>Luton Town</t>
+  </si>
+  <si>
+    <t>Hull City</t>
+  </si>
+  <si>
+    <t>Huddersfield Town</t>
+  </si>
+  <si>
+    <t>Blackburn Rovers</t>
+  </si>
+  <si>
     <t>Cardiff City</t>
   </si>
   <si>
-    <t>Luton Town</t>
-  </si>
-  <si>
-    <t>Hull City</t>
-  </si>
-  <si>
-    <t>Blackburn Rovers</t>
-  </si>
-  <si>
-    <t>Huddersfield Town</t>
-  </si>
-  <si>
     <t>Sunderland</t>
   </si>
   <si>
@@ -322,6 +322,9 @@
     <t>Ituano</t>
   </si>
   <si>
+    <t>Atlético GO</t>
+  </si>
+  <si>
     <t>CRB</t>
   </si>
   <si>
@@ -409,12 +412,12 @@
     <t>Sabah</t>
   </si>
   <si>
+    <t>Panevėžys</t>
+  </si>
+  <si>
     <t>KAA Gent</t>
   </si>
   <si>
-    <t>Panevėžys</t>
-  </si>
-  <si>
     <t>National Bank of Egypt</t>
   </si>
   <si>
@@ -451,21 +454,21 @@
     <t>Crystal Palace</t>
   </si>
   <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Norwich City</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
     <t>West Bromwich Albion</t>
   </si>
   <si>
-    <t>Bristol City</t>
-  </si>
-  <si>
-    <t>Burnley</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Norwich City</t>
-  </si>
-  <si>
     <t>Sheffield United</t>
   </si>
   <si>
@@ -482,6 +485,9 @@
   </si>
   <si>
     <t>Ceará</t>
+  </si>
+  <si>
+    <t>Volta Redonda</t>
   </si>
   <si>
     <t>Operário MT</t>
@@ -858,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH55"/>
+  <dimension ref="A1:AH56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,7 +988,7 @@
         <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F2">
         <v>3.15</v>
@@ -1086,7 +1092,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1190,16 +1196,16 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F4">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="G4">
-        <v>5.65</v>
+        <v>5.6</v>
       </c>
       <c r="H4">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="I4">
         <v>1.03</v>
@@ -1226,10 +1232,10 @@
         <v>3.1</v>
       </c>
       <c r="Q4">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R4">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="S4">
         <v>1.04</v>
@@ -1256,28 +1262,28 @@
         <v>1.05</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -1294,16 +1300,16 @@
         <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F5">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="G5">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>3.22</v>
       </c>
       <c r="I5">
         <v>1.1</v>
@@ -1318,10 +1324,10 @@
         <v>2.75</v>
       </c>
       <c r="M5">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N5">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="O5">
         <v>1.49</v>
@@ -1398,16 +1404,16 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F6">
-        <v>3.08</v>
+        <v>3.3</v>
       </c>
       <c r="G6">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H6">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="I6">
         <v>1.02</v>
@@ -1422,7 +1428,7 @@
         <v>3.2</v>
       </c>
       <c r="M6">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="N6">
         <v>1.75</v>
@@ -1502,7 +1508,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1606,16 +1612,16 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1630,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1710,16 +1716,16 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1734,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1814,16 +1820,16 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1838,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1918,16 +1924,16 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1942,10 +1948,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2022,16 +2028,16 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2046,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -2126,16 +2132,16 @@
         <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2150,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2230,55 +2236,55 @@
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="V14">
         <v>1.17</v>
@@ -2334,16 +2340,16 @@
         <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F15">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="G15">
-        <v>3.47</v>
+        <v>3.4</v>
       </c>
       <c r="H15">
-        <v>4.77</v>
+        <v>4.75</v>
       </c>
       <c r="I15">
         <v>1.06</v>
@@ -2358,10 +2364,10 @@
         <v>3.3</v>
       </c>
       <c r="M15">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="N15">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O15">
         <v>1.41</v>
@@ -2438,7 +2444,7 @@
         <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2542,55 +2548,55 @@
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="V17">
         <v>2.13</v>
@@ -2646,55 +2652,55 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V18">
         <v>1.25</v>
@@ -2750,16 +2756,16 @@
         <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>6.67</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>14.71</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2774,10 +2780,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2854,40 +2860,40 @@
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="G20">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="H20">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
+        <v>1.95</v>
+      </c>
+      <c r="N20">
         <v>1.85</v>
       </c>
-      <c r="N20">
-        <v>1.95</v>
-      </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="Q20">
         <v>2.1</v>
@@ -2920,28 +2926,28 @@
         <v>2.92</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2958,16 +2964,16 @@
         <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2982,10 +2988,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -3062,16 +3068,16 @@
         <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -3086,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -3166,55 +3172,55 @@
         <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -3270,13 +3276,13 @@
         <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F24">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="G24">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="H24">
         <v>2.4</v>
@@ -3294,10 +3300,10 @@
         <v>3.75</v>
       </c>
       <c r="M24">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="N24">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="O24">
         <v>1.36</v>
@@ -3345,7 +3351,7 @@
         <v>2.25</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE24">
         <v>1.52</v>
@@ -3374,55 +3380,55 @@
         <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="V25">
         <v>1.46</v>
@@ -3466,91 +3472,91 @@
     </row>
     <row r="26" spans="1:34">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2">
         <v>45000.58333333334</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
         <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F26">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="G26">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H26">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="M26">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
       <c r="N26">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="R26">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S26">
-        <v>1.28</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="U26">
-        <v>1.7</v>
+        <v>1.16</v>
       </c>
       <c r="V26">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="W26">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="X26">
-        <v>1.7</v>
+        <v>1.18</v>
       </c>
       <c r="Y26">
-        <v>1.51</v>
+        <v>2.3</v>
       </c>
       <c r="Z26">
-        <v>3.21</v>
+        <v>3.48</v>
       </c>
       <c r="AA26">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -3570,106 +3576,106 @@
     </row>
     <row r="27" spans="1:34">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2">
         <v>45000.58333333334</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V27">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="W27">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="X27">
-        <v>1.18</v>
+        <v>1.7</v>
       </c>
       <c r="Y27">
-        <v>2.3</v>
+        <v>1.51</v>
       </c>
       <c r="Z27">
-        <v>3.48</v>
+        <v>3.21</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="28" spans="1:34">
@@ -3686,7 +3692,7 @@
         <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3790,16 +3796,16 @@
         <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3814,10 +3820,10 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -3894,55 +3900,55 @@
         <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3998,7 +4004,7 @@
         <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F31">
         <v>2.45</v>
@@ -4064,13 +4070,13 @@
         <v>2.87</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AD31">
         <v>1.23</v>
@@ -4102,7 +4108,7 @@
         <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F32">
         <v>2.1</v>
@@ -4168,13 +4174,13 @@
         <v>3.46</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AD32">
         <v>1.23</v>
@@ -4206,7 +4212,7 @@
         <v>84</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F33">
         <v>1.7</v>
@@ -4272,13 +4278,13 @@
         <v>3.19</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="AD33">
         <v>1.2</v>
@@ -4310,7 +4316,7 @@
         <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F34">
         <v>1.62</v>
@@ -4376,16 +4382,16 @@
         <v>3.24</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE34">
         <v>1.28</v>
@@ -4414,7 +4420,7 @@
         <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F35">
         <v>2.45</v>
@@ -4480,13 +4486,13 @@
         <v>3.77</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AD35">
         <v>1.2</v>
@@ -4518,7 +4524,7 @@
         <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F36">
         <v>1.85</v>
@@ -4554,10 +4560,10 @@
         <v>2.6</v>
       </c>
       <c r="Q36">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R36">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
         <v>1.36</v>
@@ -4622,16 +4628,16 @@
         <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -4646,10 +4652,10 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -4703,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG37">
         <v>0</v>
@@ -4726,7 +4732,7 @@
         <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F38">
         <v>2.82</v>
@@ -4830,7 +4836,7 @@
         <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F39">
         <v>1.6</v>
@@ -4934,79 +4940,79 @@
         <v>91</v>
       </c>
       <c r="E40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F40">
+        <v>1.94</v>
+      </c>
+      <c r="G40">
         <v>3.36</v>
       </c>
-      <c r="G40">
-        <v>3.16</v>
-      </c>
       <c r="H40">
-        <v>2.28</v>
+        <v>4.15</v>
       </c>
       <c r="I40">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="J40">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K40">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="L40">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N40">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="O40">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P40">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q40">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S40">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="T40">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="U40">
-        <v>1.36</v>
+        <v>1.97</v>
       </c>
       <c r="V40">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="W40">
         <v>1.12</v>
       </c>
       <c r="X40">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="Y40">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="Z40">
-        <v>3.07</v>
+        <v>2.96</v>
       </c>
       <c r="AA40">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="AB40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC40">
-        <v>1.91</v>
+        <v>3.26</v>
       </c>
       <c r="AD40">
         <v>1.16</v>
@@ -5038,28 +5044,28 @@
         <v>92</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F41">
-        <v>1.94</v>
+        <v>4.12</v>
       </c>
       <c r="G41">
-        <v>3.36</v>
+        <v>3.44</v>
       </c>
       <c r="H41">
-        <v>4.15</v>
+        <v>1.92</v>
       </c>
       <c r="I41">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="J41">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K41">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
         <v>2.15</v>
@@ -5068,64 +5074,64 @@
         <v>1.72</v>
       </c>
       <c r="O41">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P41">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="Q41">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="R41">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="S41">
-        <v>1.22</v>
+        <v>1.97</v>
       </c>
       <c r="T41">
         <v>1.33</v>
       </c>
       <c r="U41">
-        <v>1.97</v>
+        <v>1.18</v>
       </c>
       <c r="V41">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="W41">
-        <v>1.12</v>
+        <v>1.94</v>
       </c>
       <c r="X41">
-        <v>1.78</v>
+        <v>1.38</v>
       </c>
       <c r="Y41">
+        <v>1.4</v>
+      </c>
+      <c r="Z41">
+        <v>2.78</v>
+      </c>
+      <c r="AA41">
+        <v>2.62</v>
+      </c>
+      <c r="AB41">
+        <v>8.5</v>
+      </c>
+      <c r="AC41">
+        <v>1.69</v>
+      </c>
+      <c r="AD41">
         <v>1.18</v>
       </c>
-      <c r="Z41">
-        <v>2.96</v>
-      </c>
-      <c r="AA41">
-        <v>1.45</v>
-      </c>
-      <c r="AB41">
-        <v>9</v>
-      </c>
-      <c r="AC41">
-        <v>3.26</v>
-      </c>
-      <c r="AD41">
-        <v>1.16</v>
-      </c>
       <c r="AE41">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AF41">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="AG41">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AH41">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="42" spans="1:34">
@@ -5142,28 +5148,28 @@
         <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F42">
-        <v>4.12</v>
+        <v>3.95</v>
       </c>
       <c r="G42">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
       <c r="H42">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="I42">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="J42">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="K42">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M42">
         <v>2.15</v>
@@ -5172,64 +5178,64 @@
         <v>1.72</v>
       </c>
       <c r="O42">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P42">
         <v>2.55</v>
       </c>
       <c r="Q42">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R42">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S42">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="U42">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="V42">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="W42">
-        <v>1.94</v>
+        <v>1.59</v>
       </c>
       <c r="X42">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="Y42">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Z42">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="AA42">
-        <v>2.62</v>
+        <v>2.91</v>
       </c>
       <c r="AB42">
         <v>8.5</v>
       </c>
       <c r="AC42">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="AD42">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AE42">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AF42">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="AG42">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AH42">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="43" spans="1:34">
@@ -5246,7 +5252,7 @@
         <v>94</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F43">
         <v>1.88</v>
@@ -5350,94 +5356,94 @@
         <v>95</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F44">
-        <v>3.95</v>
+        <v>3.36</v>
       </c>
       <c r="G44">
-        <v>3.46</v>
+        <v>3.16</v>
       </c>
       <c r="H44">
-        <v>1.96</v>
+        <v>2.28</v>
       </c>
       <c r="I44">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="J44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K44">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M44">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N44">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="O44">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="P44">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q44">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R44">
         <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="T44">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="U44">
+        <v>1.36</v>
+      </c>
+      <c r="V44">
+        <v>1.28</v>
+      </c>
+      <c r="W44">
         <v>1.12</v>
       </c>
-      <c r="V44">
-        <v>1.22</v>
-      </c>
-      <c r="W44">
-        <v>1.59</v>
-      </c>
       <c r="X44">
-        <v>1.26</v>
+        <v>1.6</v>
       </c>
       <c r="Y44">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Z44">
-        <v>2.7</v>
+        <v>3.07</v>
       </c>
       <c r="AA44">
-        <v>2.91</v>
+        <v>2.1</v>
       </c>
       <c r="AB44">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC44">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="AD44">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AE44">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AF44">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AG44">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="AH44">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="45" spans="1:34">
@@ -5454,7 +5460,7 @@
         <v>96</v>
       </c>
       <c r="E45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F45">
         <v>3.26</v>
@@ -5558,7 +5564,7 @@
         <v>97</v>
       </c>
       <c r="E46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F46">
         <v>2.05</v>
@@ -5662,7 +5668,7 @@
         <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F47">
         <v>1.65</v>
@@ -5766,7 +5772,7 @@
         <v>99</v>
       </c>
       <c r="E48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -5870,16 +5876,16 @@
         <v>100</v>
       </c>
       <c r="E49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>4.98</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -5894,10 +5900,10 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -5951,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG49">
         <v>0</v>
@@ -5974,16 +5980,16 @@
         <v>101</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F50">
-        <v>3.15</v>
+        <v>2.63</v>
       </c>
       <c r="G50">
-        <v>3.05</v>
+        <v>2.81</v>
       </c>
       <c r="H50">
-        <v>2.2</v>
+        <v>2.57</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -5998,16 +6004,16 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>2.42</v>
+        <v>2.05</v>
       </c>
       <c r="N50">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -6055,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG50">
         <v>0</v>
@@ -6069,7 +6075,7 @@
         <v>36</v>
       </c>
       <c r="B51" s="2">
-        <v>45000.8125</v>
+        <v>45000.79166666666</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -6078,16 +6084,16 @@
         <v>102</v>
       </c>
       <c r="E51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -6102,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -6114,22 +6120,22 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W51">
         <v>3</v>
@@ -6138,10 +6144,10 @@
         <v>0</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AA51">
         <v>0</v>
@@ -6159,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="AF51">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG51">
         <v>0</v>
@@ -6170,28 +6176,28 @@
     </row>
     <row r="52" spans="1:34">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B52" s="2">
-        <v>45000.83333333334</v>
+        <v>45000.8125</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D52" t="s">
         <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -6200,52 +6206,52 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V52">
-        <v>1.13</v>
+        <v>3</v>
       </c>
       <c r="W52">
-        <v>1.78</v>
+        <v>3</v>
       </c>
       <c r="X52">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="Y52">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="Z52">
-        <v>3.79</v>
+        <v>0</v>
       </c>
       <c r="AA52">
         <v>0</v>
@@ -6274,19 +6280,19 @@
     </row>
     <row r="53" spans="1:34">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B53" s="2">
         <v>45000.83333333334</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
         <v>104</v>
       </c>
       <c r="E53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -6337,19 +6343,19 @@
         <v>0</v>
       </c>
       <c r="V53">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>1.78</v>
       </c>
       <c r="X53">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="Y53">
-        <v>0.68</v>
+        <v>1.64</v>
       </c>
       <c r="Z53">
-        <v>0.68</v>
+        <v>3.79</v>
       </c>
       <c r="AA53">
         <v>0</v>
@@ -6378,10 +6384,10 @@
     </row>
     <row r="54" spans="1:34">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B54" s="2">
-        <v>45000.875</v>
+        <v>45000.83333333334</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -6390,88 +6396,88 @@
         <v>105</v>
       </c>
       <c r="E54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F54">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="G54">
-        <v>3.61</v>
+        <v>5.5</v>
       </c>
       <c r="H54">
-        <v>6.14</v>
+        <v>10.02</v>
       </c>
       <c r="I54">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="L54">
-        <v>2.85</v>
+        <v>3.8</v>
       </c>
       <c r="M54">
+        <v>1.78</v>
+      </c>
+      <c r="N54">
+        <v>2.04</v>
+      </c>
+      <c r="O54">
+        <v>1.3</v>
+      </c>
+      <c r="P54">
+        <v>3.2</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>1.03</v>
+      </c>
+      <c r="T54">
+        <v>1.11</v>
+      </c>
+      <c r="U54">
+        <v>4.04</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0.68</v>
+      </c>
+      <c r="Z54">
+        <v>0.68</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
         <v>2.1</v>
-      </c>
-      <c r="N54">
-        <v>1.67</v>
-      </c>
-      <c r="O54">
-        <v>1.43</v>
-      </c>
-      <c r="P54">
-        <v>2.6</v>
-      </c>
-      <c r="Q54">
-        <v>2.38</v>
-      </c>
-      <c r="R54">
-        <v>1.56</v>
-      </c>
-      <c r="S54">
-        <v>1.11</v>
-      </c>
-      <c r="T54">
-        <v>1.24</v>
-      </c>
-      <c r="U54">
-        <v>2.65</v>
-      </c>
-      <c r="V54">
-        <v>1.67</v>
-      </c>
-      <c r="W54">
-        <v>2.33</v>
-      </c>
-      <c r="X54">
-        <v>1.48</v>
-      </c>
-      <c r="Y54">
-        <v>1.33</v>
-      </c>
-      <c r="Z54">
-        <v>2.81</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-      <c r="AF54">
-        <v>0</v>
       </c>
       <c r="AG54">
         <v>0</v>
@@ -6482,82 +6488,82 @@
     </row>
     <row r="55" spans="1:34">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B55" s="2">
         <v>45000.875</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="s">
         <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>3.61</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="X55">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="AA55">
         <v>0</v>
@@ -6572,15 +6578,119 @@
         <v>0</v>
       </c>
       <c r="AE55">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AF55">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AG55">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AH55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="2">
+        <v>45000.875</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" t="s">
+        <v>162</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-03-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="177">
   <si>
     <t>League</t>
   </si>
@@ -145,12 +145,12 @@
     <t>Bahrain Bahraini Premier League</t>
   </si>
   <si>
+    <t>Estonia Meistriliiga</t>
+  </si>
+  <si>
     <t>Croatia Prva HNL</t>
   </si>
   <si>
-    <t>Estonia Meistriliiga</t>
-  </si>
-  <si>
     <t>Lithuania A Lyga</t>
   </si>
   <si>
@@ -190,27 +190,48 @@
     <t>Bravo</t>
   </si>
   <si>
+    <t>Fayoum</t>
+  </si>
+  <si>
+    <t>El Gounah</t>
+  </si>
+  <si>
+    <t>Asyut Petroleum</t>
+  </si>
+  <si>
+    <t>Mallawi</t>
+  </si>
+  <si>
+    <t>Shoban Moslemen Qena</t>
+  </si>
+  <si>
+    <t>Al Nasr Taa'den</t>
+  </si>
+  <si>
+    <t>Tamya</t>
+  </si>
+  <si>
+    <t>Baladiyyat Al Mehalla</t>
+  </si>
+  <si>
+    <t>Al Masry Salloum</t>
+  </si>
+  <si>
+    <t>Proxy</t>
+  </si>
+  <si>
+    <t>Gomhoreyat Shepin</t>
+  </si>
+  <si>
+    <t>Itehad Nabaroh</t>
+  </si>
+  <si>
+    <t>El Magd</t>
+  </si>
+  <si>
     <t>Dekernes</t>
   </si>
   <si>
-    <t>El Magd</t>
-  </si>
-  <si>
-    <t>Itehad Nabaroh</t>
-  </si>
-  <si>
-    <t>Gomhoreyat Shepin</t>
-  </si>
-  <si>
-    <t>Al Masry Salloum</t>
-  </si>
-  <si>
-    <t>Baladiyyat Al Mehalla</t>
-  </si>
-  <si>
-    <t>Proxy</t>
-  </si>
-  <si>
     <t>Sumqayıt</t>
   </si>
   <si>
@@ -229,22 +250,28 @@
     <t>Manama</t>
   </si>
   <si>
+    <t>Tallinna FC Levadia</t>
+  </si>
+  <si>
     <t>Istra 1961</t>
   </si>
   <si>
     <t>Harju Jalgpallikool</t>
   </si>
   <si>
-    <t>Tallinna FC Levadia</t>
-  </si>
-  <si>
     <t>Banga</t>
   </si>
   <si>
+    <t>Zira</t>
+  </si>
+  <si>
     <t>Celje</t>
   </si>
   <si>
-    <t>Zira</t>
+    <t>ENPPI</t>
+  </si>
+  <si>
+    <t>Paide</t>
   </si>
   <si>
     <t>Sūduva</t>
@@ -253,24 +280,18 @@
     <t>İstanbul Başakşehir</t>
   </si>
   <si>
-    <t>ENPPI</t>
-  </si>
-  <si>
-    <t>Paide</t>
-  </si>
-  <si>
     <t>Trakai</t>
   </si>
   <si>
+    <t>Dynamo Dresden</t>
+  </si>
+  <si>
     <t>VfB Oldenburg</t>
   </si>
   <si>
     <t>Waldhof Mannheim</t>
   </si>
   <si>
-    <t>Dynamo Dresden</t>
-  </si>
-  <si>
     <t>Saarbrucken</t>
   </si>
   <si>
@@ -283,27 +304,27 @@
     <t>Nova Iguaçu</t>
   </si>
   <si>
+    <t>Brighton &amp; Hove Albion</t>
+  </si>
+  <si>
     <t>Southampton</t>
   </si>
   <si>
-    <t>Brighton &amp; Hove Albion</t>
-  </si>
-  <si>
     <t>Luton Town</t>
   </si>
   <si>
     <t>Hull City</t>
   </si>
   <si>
+    <t>Blackburn Rovers</t>
+  </si>
+  <si>
+    <t>Cardiff City</t>
+  </si>
+  <si>
     <t>Huddersfield Town</t>
   </si>
   <si>
-    <t>Blackburn Rovers</t>
-  </si>
-  <si>
-    <t>Cardiff City</t>
-  </si>
-  <si>
     <t>Sunderland</t>
   </si>
   <si>
@@ -355,27 +376,48 @@
     <t>Maribor</t>
   </si>
   <si>
+    <t>El Madina El Monowara</t>
+  </si>
+  <si>
+    <t>La Viena FC</t>
+  </si>
+  <si>
+    <t>Kima Aswan</t>
+  </si>
+  <si>
+    <t>Dayrout</t>
+  </si>
+  <si>
+    <t>Misr Lel Makasa</t>
+  </si>
+  <si>
+    <t>El Minya SC</t>
+  </si>
+  <si>
+    <t>Aluminium Nag Hammadi</t>
+  </si>
+  <si>
+    <t>El Hamam</t>
+  </si>
+  <si>
+    <t>Abu Qair Semad</t>
+  </si>
+  <si>
+    <t>El Mansura</t>
+  </si>
+  <si>
+    <t>Pioneers</t>
+  </si>
+  <si>
+    <t>El Olympi</t>
+  </si>
+  <si>
+    <t>Sporting Alexandria</t>
+  </si>
+  <si>
     <t>Tanta SC</t>
   </si>
   <si>
-    <t>Sporting Alexandria</t>
-  </si>
-  <si>
-    <t>El Olympi</t>
-  </si>
-  <si>
-    <t>Pioneers</t>
-  </si>
-  <si>
-    <t>Abu Qair Semad</t>
-  </si>
-  <si>
-    <t>El Hamam</t>
-  </si>
-  <si>
-    <t>El Mansura</t>
-  </si>
-  <si>
     <t>Qarabağ</t>
   </si>
   <si>
@@ -394,22 +436,28 @@
     <t>Budaiya</t>
   </si>
   <si>
+    <t>Tammeka</t>
+  </si>
+  <si>
     <t>Dinamo Zagreb</t>
   </si>
   <si>
     <t>Tallinna Kalev</t>
   </si>
   <si>
-    <t>Tammeka</t>
-  </si>
-  <si>
     <t>Džiugas Telšiai</t>
   </si>
   <si>
+    <t>Sabah</t>
+  </si>
+  <si>
     <t>Olimpija</t>
   </si>
   <si>
-    <t>Sabah</t>
+    <t>National Bank of Egypt</t>
+  </si>
+  <si>
+    <t>Kuressaare</t>
   </si>
   <si>
     <t>Panevėžys</t>
@@ -418,24 +466,18 @@
     <t>KAA Gent</t>
   </si>
   <si>
-    <t>National Bank of Egypt</t>
-  </si>
-  <si>
-    <t>Kuressaare</t>
-  </si>
-  <si>
     <t>Dainava</t>
   </si>
   <si>
+    <t>MSV Duisburg</t>
+  </si>
+  <si>
     <t>Borussia Dortmund II</t>
   </si>
   <si>
     <t>Ingolstadt</t>
   </si>
   <si>
-    <t>MSV Duisburg</t>
-  </si>
-  <si>
     <t>Bayreuth</t>
   </si>
   <si>
@@ -448,25 +490,25 @@
     <t>Nova Mutum EC</t>
   </si>
   <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
     <t>Brentford</t>
   </si>
   <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
     <t>Bristol City</t>
   </si>
   <si>
     <t>Burnley</t>
   </si>
   <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>West Bromwich Albion</t>
+  </si>
+  <si>
     <t>Norwich City</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>West Bromwich Albion</t>
   </si>
   <si>
     <t>Sheffield United</t>
@@ -864,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH56"/>
+  <dimension ref="A1:AH63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -988,7 +1030,7 @@
         <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F2">
         <v>3.15</v>
@@ -1092,16 +1134,16 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1116,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1143,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="W3">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="X3">
         <v>1.17</v>
@@ -1196,7 +1238,7 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F4">
         <v>1.21</v>
@@ -1247,10 +1289,10 @@
         <v>3.9</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1300,7 +1342,7 @@
         <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F5">
         <v>2.52</v>
@@ -1351,10 +1393,10 @@
         <v>1.58</v>
       </c>
       <c r="V5">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="X5">
         <v>2.32</v>
@@ -1404,16 +1446,16 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F6">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H6">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="I6">
         <v>1.02</v>
@@ -1428,7 +1470,7 @@
         <v>3.2</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N6">
         <v>1.75</v>
@@ -1508,7 +1550,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1559,19 +1601,19 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>1.64</v>
+        <v>0.55</v>
       </c>
       <c r="X7">
-        <v>1.5</v>
+        <v>1.11</v>
       </c>
       <c r="Y7">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="Z7">
-        <v>2.56</v>
+        <v>2.28</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1612,16 +1654,16 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F8">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1636,10 +1678,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1663,19 +1705,19 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="W8">
-        <v>0.36</v>
+        <v>2</v>
       </c>
       <c r="X8">
-        <v>0.96</v>
+        <v>2.41</v>
       </c>
       <c r="Y8">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="Z8">
-        <v>2.28</v>
+        <v>3.96</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1716,16 +1758,16 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F9">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1740,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1767,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="X9">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="Z9">
-        <v>2.58</v>
+        <v>1.04</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1820,16 +1862,16 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F10">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1844,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1871,19 +1913,19 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>2.09</v>
+        <v>1.09</v>
       </c>
       <c r="W10">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="X10">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="Z10">
-        <v>2.13</v>
+        <v>1.13</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1924,16 +1966,16 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F11">
-        <v>3.32</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1948,10 +1990,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1975,19 +2017,19 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="W11">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="X11">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="Y11">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="Z11">
-        <v>2.34</v>
+        <v>2.47</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -2028,16 +2070,16 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F12">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2046,16 +2088,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="M12">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="N12">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -2079,19 +2121,19 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>1.64</v>
+        <v>2.2</v>
       </c>
       <c r="W12">
-        <v>0.8</v>
+        <v>1.27</v>
       </c>
       <c r="X12">
-        <v>2.02</v>
+        <v>1.35</v>
       </c>
       <c r="Y12">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="Z12">
-        <v>3.2</v>
+        <v>2.62</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -2132,16 +2174,16 @@
         <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F13">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2156,10 +2198,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2183,19 +2225,19 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="X13">
-        <v>1.48</v>
+        <v>1.18</v>
       </c>
       <c r="Y13">
-        <v>1.09</v>
+        <v>1.41</v>
       </c>
       <c r="Z13">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -2224,82 +2266,82 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2">
-        <v>45000.45833333334</v>
+        <v>45000.41666666666</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F14">
-        <v>9.5</v>
+        <v>1.67</v>
       </c>
       <c r="G14">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="H14">
-        <v>1.22</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K14">
+        <v>1.53</v>
+      </c>
+      <c r="L14">
+        <v>2.34</v>
+      </c>
+      <c r="M14">
+        <v>2.5</v>
+      </c>
+      <c r="N14">
+        <v>1.5</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1.64</v>
+      </c>
+      <c r="W14">
+        <v>0.8</v>
+      </c>
+      <c r="X14">
+        <v>2.02</v>
+      </c>
+      <c r="Y14">
         <v>1.18</v>
       </c>
-      <c r="L14">
-        <v>4.15</v>
-      </c>
-      <c r="M14">
-        <v>1.63</v>
-      </c>
-      <c r="N14">
-        <v>2.15</v>
-      </c>
-      <c r="O14">
-        <v>1.3</v>
-      </c>
-      <c r="P14">
-        <v>3.32</v>
-      </c>
-      <c r="Q14">
-        <v>2.12</v>
-      </c>
-      <c r="R14">
-        <v>1.69</v>
-      </c>
-      <c r="S14">
-        <v>3.65</v>
-      </c>
-      <c r="T14">
-        <v>1.12</v>
-      </c>
-      <c r="U14">
-        <v>1.02</v>
-      </c>
-      <c r="V14">
-        <v>1.17</v>
-      </c>
-      <c r="W14">
-        <v>2.69</v>
-      </c>
-      <c r="X14">
-        <v>1.5</v>
-      </c>
-      <c r="Y14">
-        <v>2.04</v>
-      </c>
       <c r="Z14">
-        <v>3.54</v>
+        <v>3.2</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -2328,114 +2370,114 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2">
-        <v>45000.45833333334</v>
+        <v>45000.41666666666</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F15">
-        <v>1.67</v>
+        <v>4.44</v>
       </c>
       <c r="G15">
-        <v>3.4</v>
+        <v>1.81</v>
       </c>
       <c r="H15">
-        <v>4.75</v>
+        <v>3.02</v>
       </c>
       <c r="I15">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>2.31</v>
       </c>
       <c r="M15">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="N15">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O15">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>1.38</v>
+        <v>0.91</v>
       </c>
       <c r="W15">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="X15">
-        <v>1.7</v>
+        <v>1.18</v>
       </c>
       <c r="Y15">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="Z15">
-        <v>3.03</v>
+        <v>2.34</v>
       </c>
       <c r="AA15">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="AH15">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:34">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2">
-        <v>45000.5</v>
+        <v>45000.41666666666</v>
       </c>
       <c r="C16">
         <v>22</v>
@@ -2444,16 +2486,16 @@
         <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2462,16 +2504,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -2495,19 +2537,19 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
-        <v>1.18</v>
+        <v>1.6</v>
       </c>
       <c r="X16">
-        <v>1.15</v>
+        <v>1.48</v>
       </c>
       <c r="Y16">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="Z16">
-        <v>2.31</v>
+        <v>2.57</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -2536,82 +2578,82 @@
     </row>
     <row r="17" spans="1:34">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2">
-        <v>45000.52083333334</v>
+        <v>45000.41666666666</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F17">
-        <v>1.55</v>
+        <v>2.08</v>
       </c>
       <c r="G17">
-        <v>3.6</v>
+        <v>2.01</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I17">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>2.15</v>
+        <v>2.39</v>
       </c>
       <c r="N17">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="O17">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>2.09</v>
+      </c>
+      <c r="W17">
+        <v>0.3</v>
+      </c>
+      <c r="X17">
         <v>1.11</v>
       </c>
-      <c r="T17">
-        <v>1.24</v>
-      </c>
-      <c r="U17">
-        <v>2.29</v>
-      </c>
-      <c r="V17">
+      <c r="Y17">
+        <v>1.02</v>
+      </c>
+      <c r="Z17">
         <v>2.13</v>
-      </c>
-      <c r="W17">
-        <v>2.43</v>
-      </c>
-      <c r="X17">
-        <v>1.77</v>
-      </c>
-      <c r="Y17">
-        <v>1.3</v>
-      </c>
-      <c r="Z17">
-        <v>3.07</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -2640,82 +2682,82 @@
     </row>
     <row r="18" spans="1:34">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2">
-        <v>45000.52083333334</v>
+        <v>45000.41666666666</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F18">
-        <v>1.91</v>
+        <v>3.62</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>1.74</v>
       </c>
       <c r="H18">
-        <v>4.2</v>
+        <v>3.86</v>
       </c>
       <c r="I18">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="L18">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="M18">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N18">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O18">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>1.8</v>
+      </c>
+      <c r="W18">
         <v>1.2</v>
       </c>
-      <c r="T18">
-        <v>1.31</v>
-      </c>
-      <c r="U18">
-        <v>1.83</v>
-      </c>
-      <c r="V18">
-        <v>1.25</v>
-      </c>
-      <c r="W18">
-        <v>1.63</v>
-      </c>
       <c r="X18">
-        <v>0.91</v>
+        <v>1.48</v>
       </c>
       <c r="Y18">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="Z18">
-        <v>2.05</v>
+        <v>2.58</v>
       </c>
       <c r="AA18">
         <v>0</v>
@@ -2744,28 +2786,28 @@
     </row>
     <row r="19" spans="1:34">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2">
-        <v>45000.52083333334</v>
+        <v>45000.41666666666</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>1.19</v>
+        <v>2.8</v>
       </c>
       <c r="G19">
-        <v>6.67</v>
+        <v>2.6</v>
       </c>
       <c r="H19">
-        <v>14.71</v>
+        <v>2.6</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2774,16 +2816,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="M19">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="N19">
-        <v>2.14</v>
+        <v>1.49</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2807,19 +2849,19 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>1.71</v>
+        <v>0.9</v>
       </c>
       <c r="W19">
-        <v>0.14</v>
+        <v>0.36</v>
       </c>
       <c r="X19">
-        <v>1.39</v>
+        <v>0.96</v>
       </c>
       <c r="Y19">
-        <v>0.74</v>
+        <v>1.32</v>
       </c>
       <c r="Z19">
-        <v>2.13</v>
+        <v>2.28</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -2848,186 +2890,186 @@
     </row>
     <row r="20" spans="1:34">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2">
-        <v>45000.54166666666</v>
+        <v>45000.41666666666</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F20">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="V20">
+        <v>1.8</v>
+      </c>
+      <c r="W20">
+        <v>1.64</v>
+      </c>
+      <c r="X20">
         <v>1.5</v>
       </c>
-      <c r="W20">
-        <v>1.91</v>
-      </c>
-      <c r="X20">
-        <v>1.19</v>
-      </c>
       <c r="Y20">
-        <v>1.73</v>
+        <v>1.06</v>
       </c>
       <c r="Z20">
-        <v>2.92</v>
+        <v>2.56</v>
       </c>
       <c r="AA20">
-        <v>4.76</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="AH20">
-        <v>6.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:34">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2">
-        <v>45000.54166666666</v>
+        <v>45000.45833333334</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F21">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>3.33</v>
+        <v>5</v>
       </c>
       <c r="H21">
-        <v>2.63</v>
+        <v>1.25</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="M21">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>3.54</v>
       </c>
       <c r="AA21">
         <v>0</v>
@@ -3056,186 +3098,186 @@
     </row>
     <row r="22" spans="1:34">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>45000.54166666666</v>
+        <v>45000.45833333334</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F22">
+        <v>1.62</v>
+      </c>
+      <c r="G22">
+        <v>3.4</v>
+      </c>
+      <c r="H22">
+        <v>4.7</v>
+      </c>
+      <c r="I22">
+        <v>1.06</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>1.3</v>
+      </c>
+      <c r="L22">
+        <v>3.3</v>
+      </c>
+      <c r="M22">
+        <v>2.05</v>
+      </c>
+      <c r="N22">
+        <v>1.75</v>
+      </c>
+      <c r="O22">
+        <v>1.41</v>
+      </c>
+      <c r="P22">
+        <v>2.7</v>
+      </c>
+      <c r="Q22">
+        <v>1.9</v>
+      </c>
+      <c r="R22">
+        <v>1.83</v>
+      </c>
+      <c r="S22">
+        <v>1.12</v>
+      </c>
+      <c r="T22">
+        <v>1.22</v>
+      </c>
+      <c r="U22">
+        <v>2.1</v>
+      </c>
+      <c r="V22">
         <v>1.38</v>
       </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="H22">
-        <v>6.5</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>1.72</v>
-      </c>
-      <c r="N22">
-        <v>2.05</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
       <c r="W22">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="X22">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Z22">
-        <v>1.72</v>
+        <v>3.03</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:34">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2">
-        <v>45000.54166666666</v>
+        <v>45000.5</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F23">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W23">
-        <v>3</v>
+        <v>1.18</v>
       </c>
       <c r="X23">
-        <v>1.53</v>
+        <v>1.15</v>
       </c>
       <c r="Y23">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="Z23">
-        <v>2.94</v>
+        <v>2.31</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -3264,207 +3306,207 @@
     </row>
     <row r="24" spans="1:34">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2">
-        <v>45000.5625</v>
+        <v>45000.52083333334</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F24">
-        <v>2.63</v>
+        <v>1.57</v>
       </c>
       <c r="G24">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H24">
-        <v>2.4</v>
+        <v>5.8</v>
       </c>
       <c r="I24">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="J24">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="K24">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="L24">
-        <v>3.75</v>
+        <v>2.79</v>
       </c>
       <c r="M24">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="N24">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="O24">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>2.61</v>
       </c>
       <c r="Q24">
+        <v>2.2</v>
+      </c>
+      <c r="R24">
+        <v>1.62</v>
+      </c>
+      <c r="S24">
+        <v>1.11</v>
+      </c>
+      <c r="T24">
+        <v>1.24</v>
+      </c>
+      <c r="U24">
+        <v>2.29</v>
+      </c>
+      <c r="V24">
+        <v>2.13</v>
+      </c>
+      <c r="W24">
+        <v>2.43</v>
+      </c>
+      <c r="X24">
+        <v>1.77</v>
+      </c>
+      <c r="Y24">
+        <v>1.3</v>
+      </c>
+      <c r="Z24">
+        <v>3.07</v>
+      </c>
+      <c r="AA24">
+        <v>1.38</v>
+      </c>
+      <c r="AB24">
+        <v>10.25</v>
+      </c>
+      <c r="AC24">
+        <v>3.4</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
         <v>1.63</v>
       </c>
-      <c r="R24">
-        <v>2.14</v>
-      </c>
-      <c r="S24">
-        <v>1.53</v>
-      </c>
-      <c r="T24">
-        <v>1.3</v>
-      </c>
-      <c r="U24">
-        <v>1.46</v>
-      </c>
-      <c r="V24">
-        <v>2.25</v>
-      </c>
-      <c r="W24">
-        <v>2.08</v>
-      </c>
-      <c r="X24">
-        <v>1.92</v>
-      </c>
-      <c r="Y24">
-        <v>1.9</v>
-      </c>
-      <c r="Z24">
-        <v>3.82</v>
-      </c>
-      <c r="AA24">
-        <v>1.93</v>
-      </c>
-      <c r="AB24">
-        <v>7</v>
-      </c>
-      <c r="AC24">
-        <v>2.25</v>
-      </c>
-      <c r="AD24">
-        <v>1.28</v>
-      </c>
-      <c r="AE24">
-        <v>1.52</v>
-      </c>
       <c r="AF24">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="AG24">
-        <v>2.32</v>
+        <v>2.64</v>
       </c>
       <c r="AH24">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:34">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2">
-        <v>45000.5625</v>
+        <v>45000.52083333334</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
         <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F25">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="G25">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H25">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="I25">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="J25">
-        <v>8.25</v>
+        <v>6.7</v>
       </c>
       <c r="K25">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="L25">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="M25">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N25">
         <v>1.57</v>
       </c>
       <c r="O25">
+        <v>1.55</v>
+      </c>
+      <c r="P25">
+        <v>2.42</v>
+      </c>
+      <c r="Q25">
+        <v>2.2</v>
+      </c>
+      <c r="R25">
+        <v>1.62</v>
+      </c>
+      <c r="S25">
+        <v>1.2</v>
+      </c>
+      <c r="T25">
+        <v>1.31</v>
+      </c>
+      <c r="U25">
+        <v>1.83</v>
+      </c>
+      <c r="V25">
+        <v>1.25</v>
+      </c>
+      <c r="W25">
+        <v>1.63</v>
+      </c>
+      <c r="X25">
+        <v>0.91</v>
+      </c>
+      <c r="Y25">
+        <v>1.14</v>
+      </c>
+      <c r="Z25">
+        <v>2.05</v>
+      </c>
+      <c r="AA25">
         <v>1.5</v>
       </c>
-      <c r="P25">
-        <v>2.4</v>
-      </c>
-      <c r="Q25">
-        <v>2</v>
-      </c>
-      <c r="R25">
-        <v>1.71</v>
-      </c>
-      <c r="S25">
-        <v>2</v>
-      </c>
-      <c r="T25">
-        <v>1.3</v>
-      </c>
-      <c r="U25">
-        <v>1.16</v>
-      </c>
-      <c r="V25">
-        <v>1.46</v>
-      </c>
-      <c r="W25">
-        <v>2.17</v>
-      </c>
-      <c r="X25">
-        <v>1.2</v>
-      </c>
-      <c r="Y25">
-        <v>1.76</v>
-      </c>
-      <c r="Z25">
-        <v>2.96</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
       <c r="AB25">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -3472,82 +3514,82 @@
     </row>
     <row r="26" spans="1:34">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2">
-        <v>45000.58333333334</v>
+        <v>45000.52083333334</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
         <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F26">
-        <v>3.75</v>
+        <v>1.19</v>
       </c>
       <c r="G26">
-        <v>3.3</v>
+        <v>6.67</v>
       </c>
       <c r="H26">
-        <v>1.95</v>
+        <v>14.71</v>
       </c>
       <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1.7</v>
+      </c>
+      <c r="N26">
+        <v>2.14</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>2.55</v>
+      </c>
+      <c r="R26">
+        <v>1.45</v>
+      </c>
+      <c r="S26">
         <v>1.01</v>
       </c>
-      <c r="J26">
-        <v>8.5</v>
-      </c>
-      <c r="K26">
-        <v>1.3</v>
-      </c>
-      <c r="L26">
-        <v>2.9</v>
-      </c>
-      <c r="M26">
-        <v>2.15</v>
-      </c>
-      <c r="N26">
-        <v>1.65</v>
-      </c>
-      <c r="O26">
+      <c r="T26">
+        <v>1.08</v>
+      </c>
+      <c r="U26">
+        <v>4.5</v>
+      </c>
+      <c r="V26">
+        <v>1.71</v>
+      </c>
+      <c r="W26">
+        <v>0.14</v>
+      </c>
+      <c r="X26">
         <v>1.39</v>
       </c>
-      <c r="P26">
-        <v>2.5</v>
-      </c>
-      <c r="Q26">
-        <v>1.92</v>
-      </c>
-      <c r="R26">
-        <v>1.75</v>
-      </c>
-      <c r="S26">
-        <v>1.95</v>
-      </c>
-      <c r="T26">
-        <v>1.22</v>
-      </c>
-      <c r="U26">
-        <v>1.16</v>
-      </c>
-      <c r="V26">
-        <v>1.5</v>
-      </c>
-      <c r="W26">
-        <v>3</v>
-      </c>
-      <c r="X26">
-        <v>1.18</v>
-      </c>
       <c r="Y26">
-        <v>2.3</v>
+        <v>0.74</v>
       </c>
       <c r="Z26">
-        <v>3.48</v>
+        <v>2.13</v>
       </c>
       <c r="AA26">
         <v>0</v>
@@ -3576,218 +3618,218 @@
     </row>
     <row r="27" spans="1:34">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2">
-        <v>45000.58333333334</v>
+        <v>45000.54166666666</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
         <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F27">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="G27">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="H27">
-        <v>3.5</v>
+        <v>7.8</v>
       </c>
       <c r="I27">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>7.25</v>
+        <v>10.5</v>
       </c>
       <c r="K27">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>2.75</v>
+        <v>3.85</v>
       </c>
       <c r="M27">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="N27">
+        <v>1.93</v>
+      </c>
+      <c r="O27">
+        <v>1.33</v>
+      </c>
+      <c r="P27">
+        <v>3.16</v>
+      </c>
+      <c r="Q27">
+        <v>1.86</v>
+      </c>
+      <c r="R27">
         <v>1.9</v>
       </c>
-      <c r="O27">
-        <v>1.46</v>
-      </c>
-      <c r="P27">
-        <v>2.5</v>
-      </c>
-      <c r="Q27">
-        <v>2</v>
-      </c>
-      <c r="R27">
-        <v>1.73</v>
-      </c>
       <c r="S27">
-        <v>1.28</v>
+        <v>1.02</v>
       </c>
       <c r="T27">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="U27">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="V27">
-        <v>2.15</v>
+        <v>1</v>
       </c>
       <c r="W27">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Y27">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>3.21</v>
+        <v>1.72</v>
       </c>
       <c r="AA27">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>3.01</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="AH27">
-        <v>3.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:34">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2">
-        <v>45000.58333333334</v>
+        <v>45000.54166666666</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
         <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="V28">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="W28">
-        <v>0.36</v>
+        <v>1.91</v>
       </c>
       <c r="X28">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="Y28">
-        <v>1.18</v>
+        <v>1.73</v>
       </c>
       <c r="Z28">
-        <v>2.29</v>
+        <v>2.92</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="29" spans="1:34">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2">
-        <v>45000.58333333334</v>
+        <v>45000.54166666666</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -3796,70 +3838,70 @@
         <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F29">
+        <v>2.5</v>
+      </c>
+      <c r="G29">
+        <v>3.3</v>
+      </c>
+      <c r="H29">
+        <v>2.45</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>17</v>
+      </c>
+      <c r="K29">
+        <v>1.18</v>
+      </c>
+      <c r="L29">
+        <v>4.35</v>
+      </c>
+      <c r="M29">
+        <v>1.77</v>
+      </c>
+      <c r="N29">
+        <v>2.03</v>
+      </c>
+      <c r="O29">
+        <v>1.3</v>
+      </c>
+      <c r="P29">
+        <v>3.22</v>
+      </c>
+      <c r="Q29">
+        <v>1.46</v>
+      </c>
+      <c r="R29">
+        <v>2.4</v>
+      </c>
+      <c r="S29">
         <v>1.4</v>
       </c>
-      <c r="G29">
-        <v>4.75</v>
-      </c>
-      <c r="H29">
-        <v>6.5</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>1.55</v>
-      </c>
-      <c r="N29">
-        <v>2.35</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
       <c r="T29">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -3891,7 +3933,7 @@
         <v>45</v>
       </c>
       <c r="B30" s="2">
-        <v>45000.60416666666</v>
+        <v>45000.54166666666</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -3900,70 +3942,70 @@
         <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F30">
-        <v>1.62</v>
+        <v>2.09</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="I30">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="J30">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K30">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="L30">
-        <v>3.7</v>
+        <v>3.28</v>
       </c>
       <c r="M30">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="N30">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O30">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P30">
+        <v>2.75</v>
+      </c>
+      <c r="Q30">
+        <v>1.75</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>1.42</v>
+      </c>
+      <c r="T30">
+        <v>1.25</v>
+      </c>
+      <c r="U30">
+        <v>1.4</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
         <v>3</v>
       </c>
-      <c r="Q30">
-        <v>1.62</v>
-      </c>
-      <c r="R30">
-        <v>2.15</v>
-      </c>
-      <c r="S30">
-        <v>1.28</v>
-      </c>
-      <c r="T30">
-        <v>1.28</v>
-      </c>
-      <c r="U30">
-        <v>1.72</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>1.5</v>
-      </c>
       <c r="X30">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
       <c r="Y30">
-        <v>1.71</v>
+        <v>1.41</v>
       </c>
       <c r="Z30">
-        <v>2.97</v>
+        <v>2.94</v>
       </c>
       <c r="AA30">
         <v>0</v>
@@ -3992,10 +4034,10 @@
     </row>
     <row r="31" spans="1:34">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2">
-        <v>45000.625</v>
+        <v>45000.5625</v>
       </c>
       <c r="C31">
         <v>27</v>
@@ -4004,102 +4046,102 @@
         <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F31">
-        <v>2.45</v>
+        <v>4.7</v>
       </c>
       <c r="G31">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H31">
-        <v>2.7</v>
+        <v>1.72</v>
       </c>
       <c r="I31">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="J31">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="K31">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="M31">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="N31">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="O31">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="P31">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="Q31">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="R31">
-        <v>2.2</v>
+        <v>1.71</v>
       </c>
       <c r="S31">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="U31">
-        <v>1.52</v>
+        <v>1.16</v>
       </c>
       <c r="V31">
-        <v>0.77</v>
+        <v>1.46</v>
       </c>
       <c r="W31">
-        <v>0.92</v>
+        <v>2.17</v>
       </c>
       <c r="X31">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="Y31">
-        <v>1.31</v>
+        <v>1.76</v>
       </c>
       <c r="Z31">
-        <v>2.87</v>
+        <v>2.96</v>
       </c>
       <c r="AA31">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AH31">
-        <v>3.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:34">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2">
-        <v>45000.625</v>
+        <v>45000.5625</v>
       </c>
       <c r="C32">
         <v>27</v>
@@ -4108,16 +4150,16 @@
         <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F32">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="G32">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H32">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="I32">
         <v>1.05</v>
@@ -4129,203 +4171,203 @@
         <v>1.25</v>
       </c>
       <c r="L32">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M32">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="N32">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O32">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P32">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q32">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R32">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="S32">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="T32">
         <v>1.3</v>
       </c>
       <c r="U32">
-        <v>1.67</v>
+        <v>1.46</v>
       </c>
       <c r="V32">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="W32">
-        <v>1.54</v>
+        <v>2.08</v>
       </c>
       <c r="X32">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="Y32">
-        <v>1.64</v>
+        <v>1.9</v>
       </c>
       <c r="Z32">
-        <v>3.46</v>
+        <v>3.82</v>
       </c>
       <c r="AA32">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="AB32">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="AC32">
-        <v>2.66</v>
+        <v>2.25</v>
       </c>
       <c r="AD32">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AE32">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AF32">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="AG32">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="AH32">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="33" spans="1:34">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2">
-        <v>45000.625</v>
+        <v>45000.58333333334</v>
       </c>
       <c r="C33">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
         <v>84</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F33">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0.5</v>
+      </c>
+      <c r="W33">
+        <v>0.36</v>
+      </c>
+      <c r="X33">
+        <v>1.11</v>
+      </c>
+      <c r="Y33">
         <v>1.18</v>
       </c>
-      <c r="T33">
-        <v>1.25</v>
-      </c>
-      <c r="U33">
-        <v>2.1</v>
-      </c>
-      <c r="V33">
-        <v>1.54</v>
-      </c>
-      <c r="W33">
-        <v>1.46</v>
-      </c>
-      <c r="X33">
-        <v>1.81</v>
-      </c>
-      <c r="Y33">
-        <v>1.38</v>
-      </c>
       <c r="Z33">
-        <v>3.19</v>
+        <v>2.29</v>
       </c>
       <c r="AA33">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>4.04</v>
+        <v>0</v>
       </c>
       <c r="AD33">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AE33">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AH33">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:34">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2">
-        <v>45000.625</v>
+        <v>45000.58333333334</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
         <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F34">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I34">
         <v>1.04</v>
@@ -4334,364 +4376,364 @@
         <v>10</v>
       </c>
       <c r="K34">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="L34">
-        <v>4.33</v>
+        <v>4.15</v>
       </c>
       <c r="M34">
+        <v>1.4</v>
+      </c>
+      <c r="N34">
+        <v>2.37</v>
+      </c>
+      <c r="O34">
+        <v>1.29</v>
+      </c>
+      <c r="P34">
+        <v>3.28</v>
+      </c>
+      <c r="Q34">
         <v>1.63</v>
       </c>
-      <c r="N34">
-        <v>2.2</v>
-      </c>
-      <c r="O34">
-        <v>1.3</v>
-      </c>
-      <c r="P34">
-        <v>3.25</v>
-      </c>
-      <c r="Q34">
-        <v>1.65</v>
-      </c>
       <c r="R34">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="S34">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="T34">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="U34">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="V34">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="W34">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="Y34">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>3.24</v>
+        <v>1.55</v>
       </c>
       <c r="AA34">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>4.44</v>
+        <v>0</v>
       </c>
       <c r="AD34">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AE34">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH34">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:34">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2">
-        <v>45000.625</v>
+        <v>45000.58333333334</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
         <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F35">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="G35">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H35">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="J35">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="K35">
+        <v>1.3</v>
+      </c>
+      <c r="L35">
+        <v>2.9</v>
+      </c>
+      <c r="M35">
+        <v>1.91</v>
+      </c>
+      <c r="N35">
+        <v>1.8</v>
+      </c>
+      <c r="O35">
+        <v>1.39</v>
+      </c>
+      <c r="P35">
+        <v>2.5</v>
+      </c>
+      <c r="Q35">
+        <v>1.92</v>
+      </c>
+      <c r="R35">
+        <v>1.75</v>
+      </c>
+      <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
         <v>1.22</v>
       </c>
-      <c r="L35">
-        <v>4</v>
-      </c>
-      <c r="M35">
-        <v>1.72</v>
-      </c>
-      <c r="N35">
-        <v>2.05</v>
-      </c>
-      <c r="O35">
-        <v>1.35</v>
-      </c>
-      <c r="P35">
-        <v>2.95</v>
-      </c>
-      <c r="Q35">
-        <v>1.57</v>
-      </c>
-      <c r="R35">
+      <c r="U35">
+        <v>1.16</v>
+      </c>
+      <c r="V35">
+        <v>1.5</v>
+      </c>
+      <c r="W35">
+        <v>3</v>
+      </c>
+      <c r="X35">
+        <v>1.18</v>
+      </c>
+      <c r="Y35">
         <v>2.3</v>
       </c>
-      <c r="S35">
-        <v>1.38</v>
-      </c>
-      <c r="T35">
-        <v>1.25</v>
-      </c>
-      <c r="U35">
-        <v>1.52</v>
-      </c>
-      <c r="V35">
-        <v>2.31</v>
-      </c>
-      <c r="W35">
-        <v>1.77</v>
-      </c>
-      <c r="X35">
-        <v>1.95</v>
-      </c>
-      <c r="Y35">
-        <v>1.82</v>
-      </c>
       <c r="Z35">
-        <v>3.77</v>
+        <v>3.48</v>
       </c>
       <c r="AA35">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AD35">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AE35">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AG35">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AH35">
-        <v>2.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:34">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2">
-        <v>45000.625</v>
+        <v>45000.58333333334</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F36">
+        <v>2.04</v>
+      </c>
+      <c r="G36">
+        <v>3.45</v>
+      </c>
+      <c r="H36">
+        <v>3.35</v>
+      </c>
+      <c r="I36">
+        <v>1.08</v>
+      </c>
+      <c r="J36">
+        <v>7.25</v>
+      </c>
+      <c r="K36">
+        <v>1.38</v>
+      </c>
+      <c r="L36">
+        <v>2.75</v>
+      </c>
+      <c r="M36">
+        <v>1.97</v>
+      </c>
+      <c r="N36">
         <v>1.85</v>
       </c>
-      <c r="G36">
-        <v>3.3</v>
-      </c>
-      <c r="H36">
-        <v>3.8</v>
-      </c>
-      <c r="I36">
-        <v>1.06</v>
-      </c>
-      <c r="J36">
-        <v>8.6</v>
-      </c>
-      <c r="K36">
-        <v>1.34</v>
-      </c>
-      <c r="L36">
-        <v>3.08</v>
-      </c>
-      <c r="M36">
+      <c r="O36">
+        <v>1.46</v>
+      </c>
+      <c r="P36">
+        <v>2.5</v>
+      </c>
+      <c r="Q36">
+        <v>1.91</v>
+      </c>
+      <c r="R36">
         <v>1.8</v>
       </c>
-      <c r="N36">
+      <c r="S36">
+        <v>1.28</v>
+      </c>
+      <c r="T36">
+        <v>1.32</v>
+      </c>
+      <c r="U36">
+        <v>1.7</v>
+      </c>
+      <c r="V36">
+        <v>2.15</v>
+      </c>
+      <c r="W36">
+        <v>1.33</v>
+      </c>
+      <c r="X36">
+        <v>1.7</v>
+      </c>
+      <c r="Y36">
+        <v>1.51</v>
+      </c>
+      <c r="Z36">
+        <v>3.21</v>
+      </c>
+      <c r="AA36">
+        <v>1.67</v>
+      </c>
+      <c r="AB36">
+        <v>8.5</v>
+      </c>
+      <c r="AC36">
+        <v>2.83</v>
+      </c>
+      <c r="AD36">
+        <v>1.29</v>
+      </c>
+      <c r="AE36">
+        <v>1.55</v>
+      </c>
+      <c r="AF36">
         <v>2</v>
       </c>
-      <c r="O36">
-        <v>1.44</v>
-      </c>
-      <c r="P36">
-        <v>2.6</v>
-      </c>
-      <c r="Q36">
-        <v>1.77</v>
-      </c>
-      <c r="R36">
-        <v>1.95</v>
-      </c>
-      <c r="S36">
-        <v>1.36</v>
-      </c>
-      <c r="T36">
-        <v>1.35</v>
-      </c>
-      <c r="U36">
-        <v>1.6</v>
-      </c>
-      <c r="V36">
-        <v>0.18</v>
-      </c>
-      <c r="W36">
-        <v>0.2</v>
-      </c>
-      <c r="X36">
-        <v>1.18</v>
-      </c>
-      <c r="Y36">
-        <v>1.06</v>
-      </c>
-      <c r="Z36">
-        <v>2.24</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>2.25</v>
-      </c>
       <c r="AG36">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="37" spans="1:34">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2">
-        <v>45000.64583333334</v>
+        <v>45000.60416666666</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
         <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F37">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="G37">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H37">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="M37">
+        <v>1.7</v>
+      </c>
+      <c r="N37">
         <v>2.1</v>
       </c>
-      <c r="N37">
+      <c r="O37">
+        <v>1.35</v>
+      </c>
+      <c r="P37">
+        <v>3</v>
+      </c>
+      <c r="Q37">
+        <v>1.62</v>
+      </c>
+      <c r="R37">
+        <v>2.15</v>
+      </c>
+      <c r="S37">
+        <v>1.28</v>
+      </c>
+      <c r="T37">
+        <v>1.28</v>
+      </c>
+      <c r="U37">
         <v>1.72</v>
       </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
       <c r="V37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X37">
-        <v>2.9</v>
+        <v>1.26</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="Z37">
-        <v>2.9</v>
+        <v>2.97</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -4709,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AG37">
         <v>0</v>
@@ -4720,926 +4762,926 @@
     </row>
     <row r="38" spans="1:34">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2">
-        <v>45000.6875</v>
+        <v>45000.625</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
         <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F38">
-        <v>2.82</v>
+        <v>1.7</v>
       </c>
       <c r="G38">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="H38">
-        <v>2.62</v>
+        <v>4.6</v>
       </c>
       <c r="I38">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="J38">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K38">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="L38">
         <v>3.8</v>
       </c>
       <c r="M38">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="N38">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="O38">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P38">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q38">
         <v>1.67</v>
       </c>
       <c r="R38">
+        <v>2.05</v>
+      </c>
+      <c r="S38">
+        <v>1.18</v>
+      </c>
+      <c r="T38">
+        <v>1.25</v>
+      </c>
+      <c r="U38">
         <v>2.1</v>
       </c>
-      <c r="S38">
-        <v>1.39</v>
-      </c>
-      <c r="T38">
-        <v>1.3</v>
-      </c>
-      <c r="U38">
-        <v>1.58</v>
-      </c>
       <c r="V38">
-        <v>0.75</v>
+        <v>1.54</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="X38">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="Y38">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="Z38">
-        <v>2.85</v>
+        <v>3.19</v>
       </c>
       <c r="AA38">
-        <v>1.64</v>
+        <v>1.36</v>
       </c>
       <c r="AB38">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC38">
-        <v>2.81</v>
+        <v>4.04</v>
       </c>
       <c r="AD38">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AE38">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="AF38">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AG38">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AH38">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="39" spans="1:34">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2">
-        <v>45000.6875</v>
+        <v>45000.625</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
         <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F39">
+        <v>2.42</v>
+      </c>
+      <c r="G39">
+        <v>3.45</v>
+      </c>
+      <c r="H39">
+        <v>2.65</v>
+      </c>
+      <c r="I39">
+        <v>1.03</v>
+      </c>
+      <c r="J39">
+        <v>11</v>
+      </c>
+      <c r="K39">
+        <v>1.25</v>
+      </c>
+      <c r="L39">
+        <v>3.8</v>
+      </c>
+      <c r="M39">
+        <v>1.79</v>
+      </c>
+      <c r="N39">
+        <v>1.96</v>
+      </c>
+      <c r="O39">
+        <v>1.35</v>
+      </c>
+      <c r="P39">
+        <v>2.9</v>
+      </c>
+      <c r="Q39">
         <v>1.6</v>
       </c>
-      <c r="G39">
-        <v>4.1</v>
-      </c>
-      <c r="H39">
-        <v>6.1</v>
-      </c>
-      <c r="I39">
-        <v>1.05</v>
-      </c>
-      <c r="J39">
-        <v>12</v>
-      </c>
-      <c r="K39">
-        <v>1.3</v>
-      </c>
-      <c r="L39">
-        <v>3.7</v>
-      </c>
-      <c r="M39">
-        <v>1.95</v>
-      </c>
-      <c r="N39">
-        <v>1.9</v>
-      </c>
-      <c r="O39">
-        <v>1.36</v>
-      </c>
-      <c r="P39">
-        <v>3</v>
-      </c>
-      <c r="Q39">
-        <v>1.95</v>
-      </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="S39">
-        <v>1.12</v>
+        <v>1.45</v>
       </c>
       <c r="T39">
+        <v>1.28</v>
+      </c>
+      <c r="U39">
+        <v>1.52</v>
+      </c>
+      <c r="V39">
+        <v>0.77</v>
+      </c>
+      <c r="W39">
+        <v>0.92</v>
+      </c>
+      <c r="X39">
+        <v>1.56</v>
+      </c>
+      <c r="Y39">
+        <v>1.31</v>
+      </c>
+      <c r="Z39">
+        <v>2.87</v>
+      </c>
+      <c r="AA39">
+        <v>1.88</v>
+      </c>
+      <c r="AB39">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC39">
+        <v>2.25</v>
+      </c>
+      <c r="AD39">
         <v>1.23</v>
       </c>
-      <c r="U39">
-        <v>2.4</v>
-      </c>
-      <c r="V39">
-        <v>1.67</v>
-      </c>
-      <c r="W39">
-        <v>0.83</v>
-      </c>
-      <c r="X39">
-        <v>1.98</v>
-      </c>
-      <c r="Y39">
-        <v>1.27</v>
-      </c>
-      <c r="Z39">
+      <c r="AE39">
+        <v>1.55</v>
+      </c>
+      <c r="AF39">
+        <v>1.85</v>
+      </c>
+      <c r="AG39">
+        <v>2.3</v>
+      </c>
+      <c r="AH39">
         <v>3.25</v>
-      </c>
-      <c r="AA39">
-        <v>1.28</v>
-      </c>
-      <c r="AB39">
-        <v>9.6</v>
-      </c>
-      <c r="AC39">
-        <v>4.95</v>
-      </c>
-      <c r="AD39">
-        <v>1.3</v>
-      </c>
-      <c r="AE39">
-        <v>1.58</v>
-      </c>
-      <c r="AF39">
-        <v>2.02</v>
-      </c>
-      <c r="AG39">
-        <v>2.66</v>
-      </c>
-      <c r="AH39">
-        <v>3.65</v>
       </c>
     </row>
     <row r="40" spans="1:34">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2">
-        <v>45000.69791666666</v>
+        <v>45000.625</v>
       </c>
       <c r="C40">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
         <v>91</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F40">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="G40">
-        <v>3.36</v>
+        <v>3.5</v>
       </c>
       <c r="H40">
-        <v>4.15</v>
+        <v>3.35</v>
       </c>
       <c r="I40">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="J40">
         <v>9</v>
       </c>
       <c r="K40">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M40">
-        <v>2.15</v>
+        <v>1.81</v>
       </c>
       <c r="N40">
-        <v>1.72</v>
+        <v>1.94</v>
       </c>
       <c r="O40">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P40">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="R40">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="S40">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="T40">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U40">
-        <v>1.97</v>
+        <v>1.67</v>
       </c>
       <c r="V40">
-        <v>1.44</v>
+        <v>2.62</v>
       </c>
       <c r="W40">
-        <v>1.12</v>
+        <v>1.54</v>
       </c>
       <c r="X40">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="Y40">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="Z40">
-        <v>2.96</v>
+        <v>3.46</v>
       </c>
       <c r="AA40">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="AB40">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC40">
-        <v>3.26</v>
+        <v>2.66</v>
       </c>
       <c r="AD40">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AE40">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AF40">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="AG40">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="AH40">
-        <v>2.69</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="41" spans="1:34">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2">
-        <v>45000.69791666666</v>
+        <v>45000.625</v>
       </c>
       <c r="C41">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
         <v>92</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F41">
-        <v>4.12</v>
+        <v>1.6</v>
       </c>
       <c r="G41">
-        <v>3.44</v>
+        <v>3.9</v>
       </c>
       <c r="H41">
-        <v>1.92</v>
+        <v>5</v>
       </c>
       <c r="I41">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="J41">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="K41">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="L41">
+        <v>4.33</v>
+      </c>
+      <c r="M41">
+        <v>1.57</v>
+      </c>
+      <c r="N41">
+        <v>2.25</v>
+      </c>
+      <c r="O41">
+        <v>1.3</v>
+      </c>
+      <c r="P41">
         <v>3.25</v>
       </c>
-      <c r="M41">
+      <c r="Q41">
+        <v>1.65</v>
+      </c>
+      <c r="R41">
         <v>2.15</v>
       </c>
-      <c r="N41">
-        <v>1.72</v>
-      </c>
-      <c r="O41">
-        <v>1.47</v>
-      </c>
-      <c r="P41">
-        <v>2.55</v>
-      </c>
-      <c r="Q41">
-        <v>1.89</v>
-      </c>
-      <c r="R41">
+      <c r="S41">
+        <v>1.15</v>
+      </c>
+      <c r="T41">
+        <v>1.18</v>
+      </c>
+      <c r="U41">
+        <v>2.15</v>
+      </c>
+      <c r="V41">
+        <v>1.33</v>
+      </c>
+      <c r="W41">
+        <v>0.62</v>
+      </c>
+      <c r="X41">
         <v>1.86</v>
       </c>
-      <c r="S41">
-        <v>1.97</v>
-      </c>
-      <c r="T41">
-        <v>1.33</v>
-      </c>
-      <c r="U41">
-        <v>1.18</v>
-      </c>
-      <c r="V41">
-        <v>1.39</v>
-      </c>
-      <c r="W41">
-        <v>1.94</v>
-      </c>
-      <c r="X41">
+      <c r="Y41">
         <v>1.38</v>
       </c>
-      <c r="Y41">
-        <v>1.4</v>
-      </c>
       <c r="Z41">
-        <v>2.78</v>
+        <v>3.24</v>
       </c>
       <c r="AA41">
-        <v>2.62</v>
+        <v>1.31</v>
       </c>
       <c r="AB41">
-        <v>8.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC41">
-        <v>1.69</v>
+        <v>4.44</v>
       </c>
       <c r="AD41">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AE41">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AF41">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AG41">
         <v>2</v>
       </c>
       <c r="AH41">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="42" spans="1:34">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2">
-        <v>45000.69791666666</v>
+        <v>45000.625</v>
       </c>
       <c r="C42">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
         <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F42">
-        <v>3.95</v>
+        <v>2.47</v>
       </c>
       <c r="G42">
-        <v>3.46</v>
+        <v>3.3</v>
       </c>
       <c r="H42">
-        <v>1.96</v>
+        <v>2.7</v>
       </c>
       <c r="I42">
         <v>1.04</v>
       </c>
       <c r="J42">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K42">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="L42">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="N42">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="O42">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="P42">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="Q42">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="R42">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="S42">
+        <v>1.38</v>
+      </c>
+      <c r="T42">
+        <v>1.25</v>
+      </c>
+      <c r="U42">
+        <v>1.52</v>
+      </c>
+      <c r="V42">
+        <v>2.31</v>
+      </c>
+      <c r="W42">
+        <v>1.77</v>
+      </c>
+      <c r="X42">
         <v>1.95</v>
       </c>
-      <c r="T42">
-        <v>1.32</v>
-      </c>
-      <c r="U42">
-        <v>1.12</v>
-      </c>
-      <c r="V42">
-        <v>1.22</v>
-      </c>
-      <c r="W42">
-        <v>1.59</v>
-      </c>
-      <c r="X42">
-        <v>1.26</v>
-      </c>
       <c r="Y42">
-        <v>1.44</v>
+        <v>1.82</v>
       </c>
       <c r="Z42">
-        <v>2.7</v>
+        <v>3.77</v>
       </c>
       <c r="AA42">
-        <v>2.91</v>
+        <v>1.88</v>
       </c>
       <c r="AB42">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC42">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="AD42">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AE42">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AF42">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="AG42">
         <v>2.1</v>
       </c>
       <c r="AH42">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="43" spans="1:34">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2">
-        <v>45000.69791666666</v>
+        <v>45000.625</v>
       </c>
       <c r="C43">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
         <v>94</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F43">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="G43">
-        <v>3.56</v>
+        <v>3.2</v>
       </c>
       <c r="H43">
-        <v>4.15</v>
+        <v>3.55</v>
       </c>
       <c r="I43">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="J43">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="K43">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="L43">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="M43">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="N43">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="O43">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P43">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q43">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="R43">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="S43">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="T43">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="V43">
-        <v>2.18</v>
+        <v>0.18</v>
       </c>
       <c r="W43">
-        <v>0.61</v>
+        <v>0.2</v>
       </c>
       <c r="X43">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="Y43">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="Z43">
-        <v>2.51</v>
+        <v>2.24</v>
       </c>
       <c r="AA43">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AB43">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="AD43">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AE43">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AF43">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="AG43">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AH43">
-        <v>3.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:34">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B44" s="2">
-        <v>45000.69791666666</v>
+        <v>45000.64583333334</v>
       </c>
       <c r="C44">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>95</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F44">
-        <v>3.36</v>
+        <v>1.81</v>
       </c>
       <c r="G44">
-        <v>3.16</v>
+        <v>3.45</v>
       </c>
       <c r="H44">
-        <v>2.28</v>
+        <v>4.9</v>
       </c>
       <c r="I44">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="J44">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="K44">
+        <v>1.31</v>
+      </c>
+      <c r="L44">
+        <v>3.04</v>
+      </c>
+      <c r="M44">
+        <v>2.08</v>
+      </c>
+      <c r="N44">
+        <v>1.75</v>
+      </c>
+      <c r="O44">
+        <v>1.45</v>
+      </c>
+      <c r="P44">
+        <v>2.63</v>
+      </c>
+      <c r="Q44">
+        <v>1.94</v>
+      </c>
+      <c r="R44">
+        <v>1.77</v>
+      </c>
+      <c r="S44">
+        <v>1.18</v>
+      </c>
+      <c r="T44">
+        <v>1.3</v>
+      </c>
+      <c r="U44">
+        <v>2.01</v>
+      </c>
+      <c r="V44">
+        <v>3</v>
+      </c>
+      <c r="W44">
+        <v>3</v>
+      </c>
+      <c r="X44">
+        <v>2.9</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>2.9</v>
+      </c>
+      <c r="AA44">
+        <v>1.34</v>
+      </c>
+      <c r="AB44">
+        <v>8.9</v>
+      </c>
+      <c r="AC44">
+        <v>4.05</v>
+      </c>
+      <c r="AD44">
+        <v>1.2</v>
+      </c>
+      <c r="AE44">
         <v>1.38</v>
       </c>
-      <c r="L44">
-        <v>2.8</v>
-      </c>
-      <c r="M44">
-        <v>2.3</v>
-      </c>
-      <c r="N44">
-        <v>1.62</v>
-      </c>
-      <c r="O44">
-        <v>1.5</v>
-      </c>
-      <c r="P44">
-        <v>2.5</v>
-      </c>
-      <c r="Q44">
-        <v>1.91</v>
-      </c>
-      <c r="R44">
-        <v>1.8</v>
-      </c>
-      <c r="S44">
-        <v>1.57</v>
-      </c>
-      <c r="T44">
-        <v>1.34</v>
-      </c>
-      <c r="U44">
-        <v>1.36</v>
-      </c>
-      <c r="V44">
-        <v>1.28</v>
-      </c>
-      <c r="W44">
-        <v>1.12</v>
-      </c>
-      <c r="X44">
-        <v>1.6</v>
-      </c>
-      <c r="Y44">
-        <v>1.47</v>
-      </c>
-      <c r="Z44">
-        <v>3.07</v>
-      </c>
-      <c r="AA44">
+      <c r="AF44">
         <v>2.1</v>
-      </c>
-      <c r="AB44">
-        <v>8</v>
-      </c>
-      <c r="AC44">
-        <v>1.91</v>
-      </c>
-      <c r="AD44">
-        <v>1.16</v>
-      </c>
-      <c r="AE44">
-        <v>1.33</v>
-      </c>
-      <c r="AF44">
-        <v>1.63</v>
       </c>
       <c r="AG44">
         <v>2.06</v>
       </c>
       <c r="AH44">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="45" spans="1:34">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2">
-        <v>45000.70833333334</v>
+        <v>45000.6875</v>
       </c>
       <c r="C45">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
         <v>96</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F45">
-        <v>3.26</v>
+        <v>1.59</v>
       </c>
       <c r="G45">
-        <v>3.36</v>
+        <v>4</v>
       </c>
       <c r="H45">
-        <v>2.23</v>
+        <v>5.8</v>
       </c>
       <c r="I45">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="J45">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="K45">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="L45">
+        <v>3.7</v>
+      </c>
+      <c r="M45">
+        <v>1.93</v>
+      </c>
+      <c r="N45">
+        <v>1.88</v>
+      </c>
+      <c r="O45">
+        <v>1.36</v>
+      </c>
+      <c r="P45">
+        <v>3</v>
+      </c>
+      <c r="Q45">
+        <v>1.95</v>
+      </c>
+      <c r="R45">
+        <v>1.8</v>
+      </c>
+      <c r="S45">
+        <v>1.12</v>
+      </c>
+      <c r="T45">
+        <v>1.23</v>
+      </c>
+      <c r="U45">
+        <v>2.4</v>
+      </c>
+      <c r="V45">
+        <v>1.67</v>
+      </c>
+      <c r="W45">
+        <v>0.83</v>
+      </c>
+      <c r="X45">
+        <v>1.98</v>
+      </c>
+      <c r="Y45">
+        <v>1.27</v>
+      </c>
+      <c r="Z45">
         <v>3.25</v>
       </c>
-      <c r="M45">
-        <v>2.1</v>
-      </c>
-      <c r="N45">
-        <v>1.75</v>
-      </c>
-      <c r="O45">
-        <v>1.44</v>
-      </c>
-      <c r="P45">
-        <v>2.63</v>
-      </c>
-      <c r="Q45">
-        <v>1.8</v>
-      </c>
-      <c r="R45">
-        <v>1.91</v>
-      </c>
-      <c r="S45">
-        <v>1.6</v>
-      </c>
-      <c r="T45">
-        <v>1.35</v>
-      </c>
-      <c r="U45">
-        <v>1.32</v>
-      </c>
-      <c r="V45">
-        <v>1.35</v>
-      </c>
-      <c r="W45">
-        <v>1.72</v>
-      </c>
-      <c r="X45">
-        <v>1.45</v>
-      </c>
-      <c r="Y45">
-        <v>1.44</v>
-      </c>
-      <c r="Z45">
-        <v>2.89</v>
-      </c>
       <c r="AA45">
-        <v>2.44</v>
+        <v>1.28</v>
       </c>
       <c r="AB45">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AC45">
-        <v>1.75</v>
+        <v>4.95</v>
       </c>
       <c r="AD45">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AE45">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AF45">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="AG45">
-        <v>2.1</v>
+        <v>2.66</v>
       </c>
       <c r="AH45">
-        <v>2.7</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="46" spans="1:34">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2">
-        <v>45000.70833333334</v>
+        <v>45000.6875</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
         <v>97</v>
       </c>
       <c r="E46" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F46">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="G46">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="H46">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
       <c r="I46">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="J46">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K46">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="L46">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="M46">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>2.42</v>
+        <v>1.82</v>
       </c>
       <c r="O46">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P46">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q46">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="R46">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="S46">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="T46">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="U46">
         <v>1.58</v>
       </c>
       <c r="V46">
-        <v>2.29</v>
+        <v>0.75</v>
       </c>
       <c r="W46">
-        <v>2.14</v>
+        <v>1</v>
       </c>
       <c r="X46">
-        <v>2.8</v>
+        <v>1.56</v>
       </c>
       <c r="Y46">
-        <v>1.99</v>
+        <v>1.29</v>
       </c>
       <c r="Z46">
-        <v>4.79</v>
+        <v>2.85</v>
       </c>
       <c r="AA46">
-        <v>2.88</v>
+        <v>1.64</v>
       </c>
       <c r="AB46">
         <v>8.199999999999999</v>
       </c>
       <c r="AC46">
-        <v>1.62</v>
+        <v>2.81</v>
       </c>
       <c r="AD46">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AE46">
         <v>1.3</v>
@@ -5648,746 +5690,746 @@
         <v>1.57</v>
       </c>
       <c r="AG46">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="AH46">
-        <v>2.56</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="47" spans="1:34">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="2">
-        <v>45000.70833333334</v>
+        <v>45000.69791666666</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D47" t="s">
         <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F47">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>4.15</v>
+        <v>3.45</v>
       </c>
       <c r="H47">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="I47">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J47">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K47">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M47">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="N47">
-        <v>2.01</v>
+        <v>1.7</v>
       </c>
       <c r="O47">
+        <v>1.44</v>
+      </c>
+      <c r="P47">
+        <v>2.63</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+      <c r="R47">
+        <v>1.73</v>
+      </c>
+      <c r="S47">
+        <v>1.22</v>
+      </c>
+      <c r="T47">
         <v>1.33</v>
       </c>
-      <c r="P47">
-        <v>3.25</v>
-      </c>
-      <c r="Q47">
-        <v>1.91</v>
-      </c>
-      <c r="R47">
-        <v>1.91</v>
-      </c>
-      <c r="S47">
-        <v>1.14</v>
-      </c>
-      <c r="T47">
-        <v>1.2</v>
-      </c>
       <c r="U47">
-        <v>2.45</v>
+        <v>1.97</v>
       </c>
       <c r="V47">
-        <v>2.57</v>
+        <v>1.44</v>
       </c>
       <c r="W47">
-        <v>1.43</v>
+        <v>1.12</v>
       </c>
       <c r="X47">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="Y47">
+        <v>1.18</v>
+      </c>
+      <c r="Z47">
+        <v>2.96</v>
+      </c>
+      <c r="AA47">
         <v>1.45</v>
-      </c>
-      <c r="Z47">
-        <v>3.39</v>
-      </c>
-      <c r="AA47">
-        <v>1.33</v>
       </c>
       <c r="AB47">
         <v>9</v>
       </c>
       <c r="AC47">
-        <v>4.45</v>
+        <v>3.26</v>
       </c>
       <c r="AD47">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="AE47">
-        <v>1.59</v>
+        <v>1.33</v>
       </c>
       <c r="AF47">
-        <v>1.99</v>
+        <v>1.63</v>
       </c>
       <c r="AG47">
-        <v>2.57</v>
+        <v>2.06</v>
       </c>
       <c r="AH47">
-        <v>3.64</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="48" spans="1:34">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>45000.70833333334</v>
+        <v>45000.69791666666</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
         <v>99</v>
       </c>
       <c r="E48" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Y48">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="49" spans="1:34">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2">
-        <v>45000.79166666666</v>
+        <v>45000.69791666666</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
         <v>100</v>
       </c>
       <c r="E49" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F49">
-        <v>4.98</v>
+        <v>1.85</v>
       </c>
       <c r="G49">
         <v>3.65</v>
       </c>
       <c r="H49">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M49">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="N49">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V49">
-        <v>3</v>
+        <v>2.18</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="X49">
+        <v>1.36</v>
+      </c>
+      <c r="Y49">
+        <v>1.15</v>
+      </c>
+      <c r="Z49">
+        <v>2.51</v>
+      </c>
+      <c r="AA49">
+        <v>1.75</v>
+      </c>
+      <c r="AB49">
+        <v>8</v>
+      </c>
+      <c r="AC49">
+        <v>2.52</v>
+      </c>
+      <c r="AD49">
+        <v>1.26</v>
+      </c>
+      <c r="AE49">
         <v>1.55</v>
       </c>
-      <c r="Y49">
-        <v>0.98</v>
-      </c>
-      <c r="Z49">
-        <v>2.53</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-      <c r="AC49">
-        <v>0</v>
-      </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
       <c r="AF49">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH49">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="50" spans="1:34">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>45000.79166666666</v>
+        <v>45000.69791666666</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D50" t="s">
         <v>101</v>
       </c>
       <c r="E50" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F50">
-        <v>2.63</v>
+        <v>3.3</v>
       </c>
       <c r="G50">
-        <v>2.81</v>
+        <v>3.2</v>
       </c>
       <c r="H50">
-        <v>2.57</v>
+        <v>2.29</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="M50">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="N50">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="O50">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="P50">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <v>1.28</v>
       </c>
       <c r="W50">
-        <v>3</v>
+        <v>1.12</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Y50">
-        <v>1.77</v>
+        <v>1.47</v>
       </c>
       <c r="Z50">
-        <v>1.77</v>
+        <v>3.07</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC50">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE50">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF50">
-        <v>1.91</v>
+        <v>1.63</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AH50">
-        <v>0</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="51" spans="1:34">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>45000.79166666666</v>
+        <v>45000.69791666666</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D51" t="s">
         <v>102</v>
       </c>
       <c r="E51" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>3.55</v>
+      </c>
+      <c r="H51">
+        <v>1.92</v>
+      </c>
+      <c r="I51">
+        <v>1.04</v>
+      </c>
+      <c r="J51">
+        <v>8</v>
+      </c>
+      <c r="K51">
+        <v>1.3</v>
+      </c>
+      <c r="L51">
+        <v>3.2</v>
+      </c>
+      <c r="M51">
+        <v>2.1</v>
+      </c>
+      <c r="N51">
+        <v>1.67</v>
+      </c>
+      <c r="O51">
+        <v>1.45</v>
+      </c>
+      <c r="P51">
+        <v>2.55</v>
+      </c>
+      <c r="Q51">
+        <v>1.9</v>
+      </c>
+      <c r="R51">
         <v>1.8</v>
       </c>
-      <c r="G51">
-        <v>3.28</v>
-      </c>
-      <c r="H51">
-        <v>4</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>2.2</v>
-      </c>
-      <c r="N51">
-        <v>1.62</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>2.02</v>
-      </c>
-      <c r="R51">
+      <c r="S51">
+        <v>1.95</v>
+      </c>
+      <c r="T51">
+        <v>1.32</v>
+      </c>
+      <c r="U51">
+        <v>1.12</v>
+      </c>
+      <c r="V51">
+        <v>1.22</v>
+      </c>
+      <c r="W51">
+        <v>1.59</v>
+      </c>
+      <c r="X51">
+        <v>1.26</v>
+      </c>
+      <c r="Y51">
+        <v>1.44</v>
+      </c>
+      <c r="Z51">
+        <v>2.7</v>
+      </c>
+      <c r="AA51">
+        <v>2.91</v>
+      </c>
+      <c r="AB51">
+        <v>8.5</v>
+      </c>
+      <c r="AC51">
+        <v>1.55</v>
+      </c>
+      <c r="AD51">
+        <v>1.21</v>
+      </c>
+      <c r="AE51">
+        <v>1.48</v>
+      </c>
+      <c r="AF51">
         <v>1.73</v>
       </c>
-      <c r="S51">
-        <v>1.19</v>
-      </c>
-      <c r="T51">
-        <v>1.27</v>
-      </c>
-      <c r="U51">
-        <v>1.92</v>
-      </c>
-      <c r="V51">
-        <v>1</v>
-      </c>
-      <c r="W51">
-        <v>3</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <v>1.47</v>
-      </c>
-      <c r="Z51">
-        <v>1.47</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51">
-        <v>1.83</v>
-      </c>
       <c r="AG51">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH51">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="52" spans="1:34">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>45000.8125</v>
+        <v>45000.70833333334</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s">
         <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F52">
-        <v>1.46</v>
+        <v>3.15</v>
       </c>
       <c r="G52">
-        <v>4.34</v>
+        <v>3.4</v>
       </c>
       <c r="H52">
-        <v>7.1</v>
+        <v>2.28</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K52">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="L52">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M52">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="N52">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="O52">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="P52">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="Q52">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R52">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="S52">
-        <v>1.11</v>
+        <v>1.6</v>
       </c>
       <c r="T52">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="U52">
-        <v>2.5</v>
+        <v>1.32</v>
       </c>
       <c r="V52">
-        <v>3</v>
+        <v>1.35</v>
       </c>
       <c r="W52">
-        <v>3</v>
+        <v>1.72</v>
       </c>
       <c r="X52">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="AA52">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC52">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AD52">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE52">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG52">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH52">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="53" spans="1:34">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>45000.83333333334</v>
+        <v>45000.70833333334</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D53" t="s">
         <v>104</v>
       </c>
       <c r="E53" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="V53">
-        <v>1.13</v>
+        <v>2.29</v>
       </c>
       <c r="W53">
-        <v>1.78</v>
+        <v>2.14</v>
       </c>
       <c r="X53">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="Y53">
-        <v>1.64</v>
+        <v>1.99</v>
       </c>
       <c r="Z53">
-        <v>3.79</v>
+        <v>4.79</v>
       </c>
       <c r="AA53">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC53">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE53">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF53">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="54" spans="1:34">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B54" s="2">
-        <v>45000.83333333334</v>
+        <v>45000.70833333334</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -6396,174 +6438,174 @@
         <v>105</v>
       </c>
       <c r="E54" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F54">
+        <v>1.56</v>
+      </c>
+      <c r="G54">
+        <v>4.4</v>
+      </c>
+      <c r="H54">
+        <v>5.6</v>
+      </c>
+      <c r="I54">
+        <v>1.04</v>
+      </c>
+      <c r="J54">
+        <v>13</v>
+      </c>
+      <c r="K54">
+        <v>1.27</v>
+      </c>
+      <c r="L54">
+        <v>4</v>
+      </c>
+      <c r="M54">
+        <v>1.9</v>
+      </c>
+      <c r="N54">
+        <v>1.9</v>
+      </c>
+      <c r="O54">
+        <v>1.33</v>
+      </c>
+      <c r="P54">
+        <v>3.25</v>
+      </c>
+      <c r="Q54">
+        <v>1.91</v>
+      </c>
+      <c r="R54">
+        <v>1.91</v>
+      </c>
+      <c r="S54">
+        <v>1.14</v>
+      </c>
+      <c r="T54">
         <v>1.2</v>
       </c>
-      <c r="G54">
-        <v>5.5</v>
-      </c>
-      <c r="H54">
-        <v>10.02</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>1.22</v>
-      </c>
-      <c r="L54">
-        <v>3.8</v>
-      </c>
-      <c r="M54">
-        <v>1.78</v>
-      </c>
-      <c r="N54">
-        <v>2.04</v>
-      </c>
-      <c r="O54">
-        <v>1.3</v>
-      </c>
-      <c r="P54">
-        <v>3.2</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>1.03</v>
-      </c>
-      <c r="T54">
-        <v>1.11</v>
-      </c>
       <c r="U54">
-        <v>4.04</v>
+        <v>2.45</v>
       </c>
       <c r="V54">
-        <v>1</v>
+        <v>2.57</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="X54">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="Y54">
-        <v>0.68</v>
+        <v>1.45</v>
       </c>
       <c r="Z54">
-        <v>0.68</v>
+        <v>3.39</v>
       </c>
       <c r="AA54">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AF54">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="55" spans="1:34">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B55" s="2">
-        <v>45000.875</v>
+        <v>45000.70833333334</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
         <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F55">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>3.61</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>6.14</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="O55">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P55">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="S55">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="U55">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="V55">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="W55">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="X55">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="Y55">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="Z55">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="AA55">
         <v>0</v>
@@ -6578,13 +6620,13 @@
         <v>0</v>
       </c>
       <c r="AE55">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AF55">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="AG55">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="AH55">
         <v>0</v>
@@ -6592,105 +6634,833 @@
     </row>
     <row r="56" spans="1:34">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B56" s="2">
-        <v>45000.875</v>
+        <v>45000.79166666666</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="s">
         <v>107</v>
       </c>
       <c r="E56" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AA56">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC56">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG56">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AH56">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45000.79166666666</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57">
+        <v>3.15</v>
+      </c>
+      <c r="G57">
+        <v>3.05</v>
+      </c>
+      <c r="H57">
+        <v>2.3</v>
+      </c>
+      <c r="I57">
+        <v>1.08</v>
+      </c>
+      <c r="J57">
+        <v>6.5</v>
+      </c>
+      <c r="K57">
+        <v>1.4</v>
+      </c>
+      <c r="L57">
+        <v>2.7</v>
+      </c>
+      <c r="M57">
+        <v>2.14</v>
+      </c>
+      <c r="N57">
+        <v>1.6</v>
+      </c>
+      <c r="O57">
+        <v>1.42</v>
+      </c>
+      <c r="P57">
+        <v>2.62</v>
+      </c>
+      <c r="Q57">
+        <v>1.91</v>
+      </c>
+      <c r="R57">
+        <v>1.8</v>
+      </c>
+      <c r="S57">
+        <v>1.48</v>
+      </c>
+      <c r="T57">
+        <v>1.36</v>
+      </c>
+      <c r="U57">
+        <v>1.45</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="W57">
+        <v>3</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>1.77</v>
+      </c>
+      <c r="Z57">
+        <v>1.77</v>
+      </c>
+      <c r="AA57">
+        <v>2.09</v>
+      </c>
+      <c r="AB57">
+        <v>7.6</v>
+      </c>
+      <c r="AC57">
+        <v>2.02</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1.3</v>
+      </c>
+      <c r="AF57">
+        <v>1.91</v>
+      </c>
+      <c r="AG57">
+        <v>1.93</v>
+      </c>
+      <c r="AH57">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="2">
+        <v>45000.79166666666</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58">
+        <v>1.8</v>
+      </c>
+      <c r="G58">
+        <v>3.35</v>
+      </c>
+      <c r="H58">
+        <v>4.5</v>
+      </c>
+      <c r="I58">
+        <v>1.06</v>
+      </c>
+      <c r="J58">
+        <v>8</v>
+      </c>
+      <c r="K58">
+        <v>1.37</v>
+      </c>
+      <c r="L58">
+        <v>3.05</v>
+      </c>
+      <c r="M58">
+        <v>2.07</v>
+      </c>
+      <c r="N58">
+        <v>1.64</v>
+      </c>
+      <c r="O58">
+        <v>1.42</v>
+      </c>
+      <c r="P58">
+        <v>2.65</v>
+      </c>
+      <c r="Q58">
+        <v>1.78</v>
+      </c>
+      <c r="R58">
+        <v>1.96</v>
+      </c>
+      <c r="S58">
+        <v>1.19</v>
+      </c>
+      <c r="T58">
+        <v>1.27</v>
+      </c>
+      <c r="U58">
+        <v>1.92</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58">
+        <v>3</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>1.47</v>
+      </c>
+      <c r="Z58">
+        <v>1.47</v>
+      </c>
+      <c r="AA58">
+        <v>1.37</v>
+      </c>
+      <c r="AB58">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC58">
+        <v>3.82</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>1.29</v>
+      </c>
+      <c r="AF58">
+        <v>1.83</v>
+      </c>
+      <c r="AG58">
+        <v>1.92</v>
+      </c>
+      <c r="AH58">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45000.8125</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" t="s">
+        <v>172</v>
+      </c>
+      <c r="F59">
+        <v>1.5</v>
+      </c>
+      <c r="G59">
+        <v>4.1</v>
+      </c>
+      <c r="H59">
+        <v>7.2</v>
+      </c>
+      <c r="I59">
+        <v>1.02</v>
+      </c>
+      <c r="J59">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K59">
+        <v>1.29</v>
+      </c>
+      <c r="L59">
+        <v>3.3</v>
+      </c>
+      <c r="M59">
+        <v>1.85</v>
+      </c>
+      <c r="N59">
+        <v>1.96</v>
+      </c>
+      <c r="O59">
+        <v>1.38</v>
+      </c>
+      <c r="P59">
+        <v>2.8</v>
+      </c>
+      <c r="Q59">
+        <v>2.25</v>
+      </c>
+      <c r="R59">
+        <v>1.57</v>
+      </c>
+      <c r="S59">
+        <v>1.06</v>
+      </c>
+      <c r="T59">
+        <v>1.17</v>
+      </c>
+      <c r="U59">
+        <v>3.3</v>
+      </c>
+      <c r="V59">
+        <v>3</v>
+      </c>
+      <c r="W59">
+        <v>3</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>1.15</v>
+      </c>
+      <c r="AB59">
+        <v>11.25</v>
+      </c>
+      <c r="AC59">
+        <v>6.95</v>
+      </c>
+      <c r="AD59">
+        <v>1.29</v>
+      </c>
+      <c r="AE59">
+        <v>1.52</v>
+      </c>
+      <c r="AF59">
+        <v>1.93</v>
+      </c>
+      <c r="AG59">
+        <v>2.51</v>
+      </c>
+      <c r="AH59">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34">
+      <c r="A60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45000.83333333334</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" t="s">
+        <v>173</v>
+      </c>
+      <c r="F60">
+        <v>5.4</v>
+      </c>
+      <c r="G60">
+        <v>3.95</v>
+      </c>
+      <c r="H60">
+        <v>1.58</v>
+      </c>
+      <c r="I60">
+        <v>1.04</v>
+      </c>
+      <c r="J60">
+        <v>12</v>
+      </c>
+      <c r="K60">
+        <v>1.26</v>
+      </c>
+      <c r="L60">
+        <v>3.62</v>
+      </c>
+      <c r="M60">
+        <v>1.96</v>
+      </c>
+      <c r="N60">
+        <v>1.85</v>
+      </c>
+      <c r="O60">
+        <v>1.38</v>
+      </c>
+      <c r="P60">
+        <v>2.81</v>
+      </c>
+      <c r="Q60">
+        <v>2.14</v>
+      </c>
+      <c r="R60">
+        <v>1.67</v>
+      </c>
+      <c r="S60">
+        <v>2.25</v>
+      </c>
+      <c r="T60">
+        <v>1.22</v>
+      </c>
+      <c r="U60">
+        <v>1.11</v>
+      </c>
+      <c r="V60">
+        <v>1.13</v>
+      </c>
+      <c r="W60">
+        <v>1.78</v>
+      </c>
+      <c r="X60">
+        <v>2.15</v>
+      </c>
+      <c r="Y60">
+        <v>1.64</v>
+      </c>
+      <c r="Z60">
+        <v>3.79</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60">
+        <v>2.38</v>
+      </c>
+      <c r="AG60">
+        <v>0</v>
+      </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45000.83333333334</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" t="s">
+        <v>174</v>
+      </c>
+      <c r="F61">
+        <v>1.21</v>
+      </c>
+      <c r="G61">
+        <v>6.4</v>
+      </c>
+      <c r="H61">
+        <v>16</v>
+      </c>
+      <c r="I61">
+        <v>1.03</v>
+      </c>
+      <c r="J61">
+        <v>11.5</v>
+      </c>
+      <c r="K61">
+        <v>1.22</v>
+      </c>
+      <c r="L61">
+        <v>3.8</v>
+      </c>
+      <c r="M61">
+        <v>1.83</v>
+      </c>
+      <c r="N61">
+        <v>2.03</v>
+      </c>
+      <c r="O61">
+        <v>1.3</v>
+      </c>
+      <c r="P61">
+        <v>3.2</v>
+      </c>
+      <c r="Q61">
+        <v>2.45</v>
+      </c>
+      <c r="R61">
+        <v>1.49</v>
+      </c>
+      <c r="S61">
+        <v>1.03</v>
+      </c>
+      <c r="T61">
+        <v>1.11</v>
+      </c>
+      <c r="U61">
+        <v>4.04</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0.68</v>
+      </c>
+      <c r="Z61">
+        <v>0.68</v>
+      </c>
+      <c r="AA61">
+        <v>1.08</v>
+      </c>
+      <c r="AB61">
+        <v>13.5</v>
+      </c>
+      <c r="AC61">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AD61">
+        <v>1.22</v>
+      </c>
+      <c r="AE61">
+        <v>1.4</v>
+      </c>
+      <c r="AF61">
+        <v>2.1</v>
+      </c>
+      <c r="AG61">
+        <v>2.17</v>
+      </c>
+      <c r="AH61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45000.875</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" t="s">
+        <v>175</v>
+      </c>
+      <c r="F62">
+        <v>1.43</v>
+      </c>
+      <c r="G62">
+        <v>3.61</v>
+      </c>
+      <c r="H62">
+        <v>6.14</v>
+      </c>
+      <c r="I62">
+        <v>1.07</v>
+      </c>
+      <c r="J62">
+        <v>8</v>
+      </c>
+      <c r="K62">
+        <v>1.37</v>
+      </c>
+      <c r="L62">
+        <v>2.85</v>
+      </c>
+      <c r="M62">
+        <v>2.1</v>
+      </c>
+      <c r="N62">
+        <v>1.67</v>
+      </c>
+      <c r="O62">
+        <v>1.43</v>
+      </c>
+      <c r="P62">
+        <v>2.6</v>
+      </c>
+      <c r="Q62">
+        <v>2.38</v>
+      </c>
+      <c r="R62">
+        <v>1.56</v>
+      </c>
+      <c r="S62">
+        <v>1.11</v>
+      </c>
+      <c r="T62">
+        <v>1.24</v>
+      </c>
+      <c r="U62">
+        <v>2.65</v>
+      </c>
+      <c r="V62">
+        <v>1.67</v>
+      </c>
+      <c r="W62">
+        <v>2.33</v>
+      </c>
+      <c r="X62">
+        <v>1.48</v>
+      </c>
+      <c r="Y62">
+        <v>1.33</v>
+      </c>
+      <c r="Z62">
+        <v>2.81</v>
+      </c>
+      <c r="AA62">
+        <v>1.28</v>
+      </c>
+      <c r="AB62">
+        <v>9.4</v>
+      </c>
+      <c r="AC62">
+        <v>4.85</v>
+      </c>
+      <c r="AD62">
+        <v>1.29</v>
+      </c>
+      <c r="AE62">
+        <v>1.61</v>
+      </c>
+      <c r="AF62">
+        <v>1.99</v>
+      </c>
+      <c r="AG62">
+        <v>2.51</v>
+      </c>
+      <c r="AH62">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="2">
+        <v>45000.875</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" t="s">
+        <v>176</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>0</v>
+      </c>
+      <c r="AH63">
         <v>0</v>
       </c>
     </row>
